--- a/Group Documents/Project Decision Matrix.xlsx
+++ b/Group Documents/Project Decision Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="9240" yWindow="1400" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -328,28 +328,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,25 +343,58 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,30 +404,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -768,180 +768,180 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="8"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31">
-        <v>3</v>
-      </c>
-      <c r="D4" s="31">
-        <v>3</v>
-      </c>
-      <c r="E4" s="31">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
         <f>ROUND(GEOMEAN(B4:E4), 2)</f>
         <v>1.73</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <f>ROUND(GEOMEAN(B4:E4)/SUM($F$4:$F$7), 2)</f>
         <v>0.39</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C5" s="31">
-        <v>1</v>
-      </c>
-      <c r="D5" s="31">
-        <v>3</v>
-      </c>
-      <c r="E5" s="31">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
         <f>ROUND(GEOMEAN(B5:E5), 2)</f>
         <v>1.32</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <f>ROUND(GEOMEAN(B5:E5)/SUM($F$4:$F$7), 2)</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="31">
-        <v>1</v>
-      </c>
-      <c r="E6" s="31">
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <f>ROUND(GEOMEAN(B6:E6), 2)</f>
         <v>0.44</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="5">
         <f>ROUND(GEOMEAN(B6:E6)/SUM($F$4:$F$7), 2)</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="31">
-        <v>1</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D7" s="31">
-        <v>3</v>
-      </c>
-      <c r="E7" s="31">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="D7" s="13">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
         <f>ROUND(GEOMEAN(B7:E7), 2)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <f>ROUND(GEOMEAN(B7:E7)/SUM($F$4:$F$7), 2)</f>
         <v>0.22</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:10" ht="16" thickBot="1">
       <c r="A13" s="1"/>
@@ -953,178 +953,178 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="16" thickBot="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <v>3</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
+      <c r="B16" s="30"/>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19">
+        <v>3</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19">
         <v>2</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="22">
+      <c r="H16" s="19"/>
+      <c r="I16" s="17">
         <v>4</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="5">
+      <c r="B17" s="30"/>
+      <c r="C17" s="19">
         <v>2</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="5">
-        <v>3</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="22">
+      <c r="D17" s="19"/>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="19">
+        <v>3</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="17">
         <v>4</v>
       </c>
-      <c r="J17" s="22"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <v>3</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
+      <c r="B18" s="30"/>
+      <c r="C18" s="19">
         <v>2</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="22">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19">
+        <v>3</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19">
         <v>4</v>
       </c>
-      <c r="J18" s="22"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="22">
+      <c r="B19" s="30"/>
+      <c r="C19" s="19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17">
+        <v>4</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17">
         <v>2</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22">
-        <v>3</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22">
-        <v>1</v>
-      </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2"/>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="19">
         <f>(16-SUM(C16:C19))</f>
-        <v>11</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
+        <v>8</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19">
         <f t="shared" ref="E20" si="0">(16-SUM(E16:E19))</f>
-        <v>7</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
+        <v>8</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19">
         <f t="shared" ref="G20" si="1">(16-SUM(G16:G19))</f>
-        <v>6</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5">
+        <v>3</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19">
         <f t="shared" ref="I20" si="2">(16-SUM(I16:I19))</f>
-        <v>3</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="19">
         <f>ROUND(C20/24, 2)</f>
-        <v>0.46</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19">
         <f t="shared" ref="E21" si="3">ROUND(E20/24, 2)</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
         <f t="shared" ref="G21" si="4">ROUND(G20/24, 2)</f>
-        <v>0.25</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19">
         <f t="shared" ref="I21" si="5">ROUND(I20/24, 2)</f>
-        <v>0.13</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>0.21</v>
+      </c>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:12" ht="16" thickBot="1">
       <c r="C22" s="1"/>
@@ -1137,163 +1137,163 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="16" thickBot="1">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13" t="s">
+      <c r="F24" s="23"/>
+      <c r="G24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14" t="s">
+      <c r="J24" s="23"/>
+      <c r="K24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7">
+      <c r="A25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
-        <v>3</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="32">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15">
+        <v>3</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="6">
+      <c r="J25" s="17"/>
+      <c r="K25" s="4">
         <f>ROUND(GEOMEAN(C25,E25, G25, I25), 2)</f>
         <v>0.76</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="4">
         <f>ROUND(K25/SUM($K$25:$K$28), 2)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="7">
-        <v>3</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15">
+        <v>3</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15">
         <v>5</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="32">
-        <v>1</v>
-      </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="6">
+      <c r="H26" s="15"/>
+      <c r="I26" s="16">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="4">
         <f t="shared" ref="K26:K28" si="6">ROUND(GEOMEAN(C26,E26, G26, I26), 2)</f>
         <v>1.97</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="4">
         <f t="shared" ref="L26:L28" si="7">ROUND(K26/SUM($K$25:$K$28), 2)</f>
         <v>0.39</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="7">
+      <c r="A27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15">
         <v>0.2</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="32">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16">
         <v>0.2</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="6">
+      <c r="J27" s="17"/>
+      <c r="K27" s="4">
         <f t="shared" si="6"/>
         <v>0.34</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="4">
         <f t="shared" si="7"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="7">
-        <v>3</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="32">
-        <v>1</v>
-      </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15">
+        <v>3</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16">
+        <v>1</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16">
         <v>5</v>
       </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32">
-        <v>1</v>
-      </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="6">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16">
+        <v>1</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="4">
         <f t="shared" si="6"/>
         <v>1.97</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="4">
         <f t="shared" si="7"/>
         <v>0.39</v>
       </c>
@@ -1309,163 +1309,163 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="16" thickBot="1">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="17" t="s">
+      <c r="J31" s="23"/>
+      <c r="K31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L31" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7">
+      <c r="A32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15">
         <v>5</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7">
-        <v>3</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="32">
+      <c r="F32" s="15"/>
+      <c r="G32" s="15">
+        <v>3</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16">
         <v>5</v>
       </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="6">
+      <c r="J32" s="17"/>
+      <c r="K32" s="4">
         <f>ROUND(GEOMEAN(C32,E32, G32, I32), 2)</f>
         <v>2.94</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="4">
         <f>ROUND(K32/SUM($K$25:$K$28), 2)</f>
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="7">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15">
         <v>0.2</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="32">
-        <v>3</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="6">
+      <c r="H33" s="15"/>
+      <c r="I33" s="16">
+        <v>3</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="4">
         <f t="shared" ref="K33:K35" si="8">ROUND(GEOMEAN(C33,E33, G33, I33), 2)</f>
         <v>0.67</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="4">
         <f t="shared" ref="L33:L35" si="9">ROUND(K33/SUM($K$25:$K$28), 2)</f>
         <v>0.13</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="7">
+      <c r="A34" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7">
-        <v>3</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="32">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15">
+        <v>3</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15">
+        <v>1</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="16">
         <v>5</v>
       </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="6">
+      <c r="J34" s="17"/>
+      <c r="K34" s="4">
         <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="4">
         <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="7">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15">
         <v>0.2</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="32">
+      <c r="D35" s="15"/>
+      <c r="E35" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16">
         <v>0.2</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32">
-        <v>1</v>
-      </c>
-      <c r="J35" s="22"/>
-      <c r="K35" s="6">
+      <c r="H35" s="16"/>
+      <c r="I35" s="16">
+        <v>1</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="4">
         <f t="shared" si="8"/>
         <v>0.34</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="4">
         <f t="shared" si="9"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1481,163 +1481,163 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="16" thickBot="1">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="16"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13" t="s">
+      <c r="F38" s="23"/>
+      <c r="G38" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="17" t="s">
+      <c r="J38" s="23"/>
+      <c r="K38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="L38" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7">
+      <c r="A39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15">
+        <v>1</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15">
         <v>5</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7">
+      <c r="F39" s="15"/>
+      <c r="G39" s="15">
         <v>9</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="32">
+      <c r="H39" s="15"/>
+      <c r="I39" s="16">
         <v>7</v>
       </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="6">
+      <c r="J39" s="17"/>
+      <c r="K39" s="4">
         <f>ROUND(GEOMEAN(C39,E39, G39, I39), 2)</f>
         <v>4.21</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="4">
         <f>ROUND(K39/SUM($K$25:$K$28), 2)</f>
         <v>0.84</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="7">
+      <c r="B40" s="14"/>
+      <c r="C40" s="15">
         <v>0.2</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7">
-        <v>1</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7">
+      <c r="D40" s="15"/>
+      <c r="E40" s="15">
+        <v>1</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15">
         <v>5</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="32">
-        <v>3</v>
-      </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="6">
+      <c r="H40" s="15"/>
+      <c r="I40" s="16">
+        <v>3</v>
+      </c>
+      <c r="J40" s="17"/>
+      <c r="K40" s="4">
         <f t="shared" ref="K40:K42" si="10">ROUND(GEOMEAN(C40,E40, G40, I40), 2)</f>
         <v>1.32</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="4">
         <f t="shared" ref="L40:L42" si="11">ROUND(K40/SUM($K$25:$K$28), 2)</f>
         <v>0.26</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="7">
+      <c r="A41" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7">
+      <c r="D41" s="15"/>
+      <c r="E41" s="15">
         <v>0.2</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="32">
-        <v>3</v>
-      </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="6">
+      <c r="F41" s="15"/>
+      <c r="G41" s="15">
+        <v>1</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16">
+        <v>3</v>
+      </c>
+      <c r="J41" s="17"/>
+      <c r="K41" s="4">
         <f t="shared" si="10"/>
         <v>0.51</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="4">
         <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="7">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="32">
+      <c r="D42" s="15"/>
+      <c r="E42" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32">
+      <c r="F42" s="16"/>
+      <c r="G42" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32">
-        <v>1</v>
-      </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="6">
+      <c r="H42" s="16"/>
+      <c r="I42" s="16">
+        <v>1</v>
+      </c>
+      <c r="J42" s="17"/>
+      <c r="K42" s="4">
         <f t="shared" si="10"/>
         <v>0.35</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="4">
         <f t="shared" si="11"/>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1653,298 +1653,214 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="16" thickBot="1">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="35"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34" t="s">
+      <c r="F45" s="26"/>
+      <c r="G45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="34"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="11">
         <f>G4</f>
         <v>0.39</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="19">
         <f>C21</f>
-        <v>0.46</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19">
         <f>E21</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19">
         <f>G21</f>
-        <v>0.25</v>
-      </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19">
         <f>I21</f>
-        <v>0.13</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>0.21</v>
+      </c>
+      <c r="J47" s="19"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="11">
         <f t="shared" ref="B48:B50" si="12">G5</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="19">
         <f>L26</f>
         <v>0.39</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5">
+      <c r="D48" s="19"/>
+      <c r="E48" s="19">
         <f>L26</f>
         <v>0.39</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5">
+      <c r="F48" s="19"/>
+      <c r="G48" s="19">
         <f>L27</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5">
+      <c r="H48" s="19"/>
+      <c r="I48" s="19">
         <f>L28</f>
         <v>0.39</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="J48" s="19"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="11">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="19">
         <f>L32</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5">
+      <c r="D49" s="19"/>
+      <c r="E49" s="19">
         <f>L33</f>
         <v>0.13</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5">
+      <c r="F49" s="19"/>
+      <c r="G49" s="19">
         <f>L34</f>
         <v>0.3</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5">
+      <c r="H49" s="19"/>
+      <c r="I49" s="19">
         <f>L35</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="J49" s="19"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="11">
         <f t="shared" si="12"/>
         <v>0.22</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="19">
         <f>L39</f>
         <v>0.84</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5">
+      <c r="D50" s="19"/>
+      <c r="E50" s="19">
         <f>L40</f>
         <v>0.26</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5">
+      <c r="F50" s="19"/>
+      <c r="G50" s="19">
         <f>L41</f>
         <v>0.1</v>
       </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5">
+      <c r="H50" s="19"/>
+      <c r="I50" s="19">
         <f>L42</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="J50" s="19"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="18">
+      <c r="B51" s="36"/>
+      <c r="C51" s="25">
         <f>ROUND(SUM($B47*C47, $B48*C48, $B49*C49, $B50*C50),2)</f>
-        <v>0.54</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18">
+        <v>0.48</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25">
         <f t="shared" ref="E51" si="13">ROUND(SUM($B47*E47, $B48*E48, $B49*E49, $B50*E50),2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18">
+        <v>0.31</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25">
         <f t="shared" ref="G51" si="14">ROUND(SUM($B47*G47, $B48*G48, $B49*G49, $B50*G50),2)</f>
-        <v>0.17</v>
-      </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25">
         <f t="shared" ref="I51" si="15">ROUND(SUM($B47*I47, $B48*I48, $B49*I49, $B50*I50),2)</f>
-        <v>0.19</v>
-      </c>
-      <c r="J51" s="18"/>
+        <v>0.22</v>
+      </c>
+      <c r="J51" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I45:J46"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G45:H46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="E15:F15"/>
@@ -1965,27 +1881,111 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G45:H46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I45:J46"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Group Documents/Project Decision Matrix.xlsx
+++ b/Group Documents/Project Decision Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="1400" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="5400" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -758,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20:H20"/>
     </sheetView>
   </sheetViews>
